--- a/excel/OscarData.xlsx
+++ b/excel/OscarData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardp96/Development/TID_PROYECTO/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardp96/Development/TID_PROYECTO/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23120" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="52">
   <si>
     <t>Lugar de Partida</t>
   </si>
@@ -129,13 +129,67 @@
   </si>
   <si>
     <t>La Cuesta</t>
+  </si>
+  <si>
+    <t>Ravelo</t>
+  </si>
+  <si>
+    <t>El Ortigal</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Montaña</t>
+  </si>
+  <si>
+    <t>Las Carboneras</t>
+  </si>
+  <si>
+    <t>Las Mercedes</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>Parque La Granja</t>
+  </si>
+  <si>
+    <t>La Verdellada</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Campus central ULL</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Plaza Weyler</t>
+  </si>
+  <si>
+    <t>Hotel Mencey</t>
+  </si>
+  <si>
+    <t>La Villa</t>
+  </si>
+  <si>
+    <t>San Antonio (Orotava)</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +201,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,10 +267,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,8 +296,29 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,6 +2365,1476 @@
         <v>33</v>
       </c>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K61" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K63" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K66" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K67" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K68" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K73" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K74" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K75" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K76" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K79" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K80" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K83" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K84" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K85" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K86" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K91" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K92" s="3">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/OscarData.xlsx
+++ b/excel/OscarData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardp96/Development/TID_PROYECTO/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardp96/Development/TID/TID_PROYECTO/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="74">
   <si>
     <t>Lugar de Partida</t>
   </si>
@@ -183,6 +183,72 @@
   </si>
   <si>
     <t>4.8</t>
+  </si>
+  <si>
+    <t>Tacoronte</t>
+  </si>
+  <si>
+    <t>La Laguna</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Taco</t>
+  </si>
+  <si>
+    <t>Guimar</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>El Escobonal</t>
+  </si>
+  <si>
+    <t>Puerto de la Cruz</t>
+  </si>
+  <si>
+    <t>68.2</t>
+  </si>
+  <si>
+    <t>La Guancha</t>
+  </si>
+  <si>
+    <t>Guía de Isora</t>
+  </si>
+  <si>
+    <t>56.8</t>
+  </si>
+  <si>
+    <t>Los Silos</t>
+  </si>
+  <si>
+    <t>61.8</t>
+  </si>
+  <si>
+    <t>Fasnia</t>
+  </si>
+  <si>
+    <t>Vilaflor</t>
+  </si>
+  <si>
+    <t>52.7</t>
+  </si>
+  <si>
+    <t>57.5</t>
   </si>
 </sst>
 </file>
@@ -229,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +308,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,6 +335,21 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -288,7 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +384,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3835,6 +3937,2171 @@
         <v>46</v>
       </c>
     </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="8">
+        <v>23</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="8">
+        <v>23</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="8">
+        <v>23</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="8">
+        <v>23</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K109" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="8">
+        <v>23</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="8">
+        <v>23</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K133" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K135" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K136" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K139" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K140" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K141" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K142" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K143" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K144" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K145" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K149" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K152" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K153" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K154" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K155" s="7">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
